--- a/import/List_sv_TA.xlsx
+++ b/import/List_sv_TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F1C1F-3400-47BB-97E1-0A554F086182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A99D5-EE46-42EB-BDA7-72179A4666A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45B5C5C9-3BF2-4C64-AE03-389D727FBC36}"/>
   </bookViews>
@@ -36,263 +36,140 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="159">
   <si>
     <t>Đỗ Đức Anh</t>
   </si>
   <si>
-    <t>aduc4453@gmail.com</t>
-  </si>
-  <si>
     <t>Phạm Cả</t>
   </si>
   <si>
-    <t>capham18@gmail.com</t>
-  </si>
-  <si>
     <t>Huỳnh Ngọc Dân</t>
   </si>
   <si>
-    <t>danh17032@gmail.com</t>
-  </si>
-  <si>
     <t>Trương Tuấn Dũng</t>
   </si>
   <si>
-    <t>truongtuandung2001@gmail.com</t>
-  </si>
-  <si>
     <t>Dương Lin Đa</t>
   </si>
   <si>
-    <t>duonglinda20122004@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Văn Đài</t>
   </si>
   <si>
-    <t>nguyenvandai896@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Văn Đức</t>
   </si>
   <si>
-    <t>nguyenvanduc1823@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Thị Trúc Giang</t>
   </si>
   <si>
-    <t>giangtran260404@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Viết Giang</t>
   </si>
   <si>
-    <t>tranvietgiang25@gmail.com</t>
-  </si>
-  <si>
-    <t>haovtv1234@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Thị Thu Hiền</t>
   </si>
   <si>
-    <t>hiennhi305@gmail.com</t>
-  </si>
-  <si>
     <t>Hồ Văn Hiếu</t>
   </si>
   <si>
-    <t>hovanhieu.tdc2223@gmail.com</t>
-  </si>
-  <si>
     <t>Phạm Minh Hiếu</t>
   </si>
   <si>
-    <t>pmhieudev1309@gmail.com</t>
-  </si>
-  <si>
     <t>Đào Văn Hoàng</t>
   </si>
   <si>
-    <t>daovanhoang100904@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Hữu Hào Hùng</t>
   </si>
   <si>
-    <t>nguyenhaohung640@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Đình Vũ Kha</t>
   </si>
   <si>
     <t>Mã Tuấn Kiệt</t>
   </si>
   <si>
-    <t>matuankiet2003@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Tuấn Kiệt</t>
   </si>
   <si>
-    <t>kietnguyen97124@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Tuấn Kiệt</t>
   </si>
   <si>
-    <t>ttk.17092003@gmail.com</t>
-  </si>
-  <si>
     <t>Bùi Thẩm Kỳ</t>
   </si>
   <si>
-    <t>kybui09@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Gia Lâm</t>
   </si>
   <si>
-    <t>gialam130704@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Lân</t>
   </si>
   <si>
-    <t>nlan4670@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Phương Lộc</t>
   </si>
   <si>
-    <t>lephuongloc2003@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Chí Lộc</t>
   </si>
   <si>
     <t>Chau Răs Mây</t>
   </si>
   <si>
-    <t>rasmay2208@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Quốc Nam</t>
   </si>
   <si>
     <t>Trần Y Nam</t>
   </si>
   <si>
-    <t>tr.namm29@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thị Nhi</t>
   </si>
   <si>
-    <t>nhi7158456@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Danh Phát</t>
   </si>
   <si>
-    <t>ndphat101222@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Châu Phi</t>
   </si>
   <si>
-    <t>phipari12345@gmail.com</t>
-  </si>
-  <si>
     <t>Đặng Thanh Phong</t>
   </si>
   <si>
-    <t>thanhphongdang25@gmail.com</t>
-  </si>
-  <si>
     <t>Thiên Đặng Héc Quynh</t>
   </si>
   <si>
-    <t>quynhthien9100@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Hồng Sơn</t>
   </si>
   <si>
-    <t>sonle1649d@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Tâm</t>
   </si>
   <si>
-    <t>ngthanhtam21.work@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Tiến Thành</t>
   </si>
   <si>
-    <t>2025ntt789@gmail.com</t>
-  </si>
-  <si>
     <t>Mai Hồng Thắng</t>
   </si>
   <si>
-    <t>thangmai0107@gmail.com</t>
-  </si>
-  <si>
     <t>Vũ Đình Thiện</t>
   </si>
   <si>
-    <t>vudinhthien719@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Viết Thống</t>
   </si>
   <si>
-    <t>sonhuengmin2312@gmail.com</t>
-  </si>
-  <si>
     <t>Đinh Thanh Toàn</t>
   </si>
   <si>
-    <t>dnhtoan3012@gmail.com</t>
-  </si>
-  <si>
     <t>Trần Văn Xuân Triều</t>
   </si>
   <si>
-    <t>tvxt12@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Đồng Minh Tuấn</t>
   </si>
   <si>
-    <t>ledongminhtuan@gmail.com</t>
-  </si>
-  <si>
     <t>Nguyễn Thanh Tuấn</t>
   </si>
   <si>
     <t>Trần Văn Tuấn</t>
   </si>
   <si>
-    <t>tuantran280504@gmail.com</t>
-  </si>
-  <si>
     <t>Lê Văn Vũ</t>
   </si>
   <si>
-    <t>levanvu111025@gmail.com</t>
-  </si>
-  <si>
     <t>Võ Nam Yên</t>
   </si>
   <si>
-    <t>vonamyen@gmail.com</t>
-  </si>
-  <si>
     <t>23211TA3144</t>
   </si>
   <si>
@@ -494,13 +371,148 @@
     <t>TEN</t>
   </si>
   <si>
-    <t>NGAY _SINH</t>
-  </si>
-  <si>
     <t>PHONE</t>
   </si>
   <si>
     <t>EMAIL</t>
+  </si>
+  <si>
+    <t>NGAY_SINH</t>
+  </si>
+  <si>
+    <t>ducanh.ta3144@student.edu.vn</t>
+  </si>
+  <si>
+    <t>phamca.ta1404@student.edu.vn</t>
+  </si>
+  <si>
+    <t>huynhdan.ta2666@student.edu.vn</t>
+  </si>
+  <si>
+    <t>truongdung.ta0403@student.edu.vn</t>
+  </si>
+  <si>
+    <t>duongda.ta4827@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyendai.ta4312@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenduc.ta3802@student.edu.vn</t>
+  </si>
+  <si>
+    <t>trangiang.ta3805@student.edu.vn</t>
+  </si>
+  <si>
+    <t>tranviengiang.ta2984@student.edu.vn</t>
+  </si>
+  <si>
+    <t>luonghao.ta3424@student.edu.vn</t>
+  </si>
+  <si>
+    <t>tranhien.ta1158@student.edu.vn</t>
+  </si>
+  <si>
+    <t>hohieu.ta3455@student.edu.vn</t>
+  </si>
+  <si>
+    <t>phamhieu.ta0068@student.edu.vn</t>
+  </si>
+  <si>
+    <t>daohoang.ta2183@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenhung.ta0659@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenkha.ta3957@student.edu.vn</t>
+  </si>
+  <si>
+    <t>makiet.ta4824@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenkiet.ta0087@student.edu.vn</t>
+  </si>
+  <si>
+    <t>trankiet.ta4493@student.edu.vn</t>
+  </si>
+  <si>
+    <t>buiky.ta0774@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenlam.ta3655@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenlan.ta2438@student.edu.vn</t>
+  </si>
+  <si>
+    <t>leloc.ta1402@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenloc.ta0255@student.edu.vn</t>
+  </si>
+  <si>
+    <t>chaumay.ta4636@student.edu.vn</t>
+  </si>
+  <si>
+    <t>tranam.ta3094@student.edu.vn</t>
+  </si>
+  <si>
+    <t>tranynam.ta4524@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyennhi.ta0564@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenphat.ta4445@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenphi.ta3477@student.edu.vn</t>
+  </si>
+  <si>
+    <t>dangphong.ta0653@student.edu.vn</t>
+  </si>
+  <si>
+    <t>thienquynh.ta0388@student.edu.vn</t>
+  </si>
+  <si>
+    <t>leson.ta4339@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyentam.ta4803@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenthanh.ta4749@student.edu.vn</t>
+  </si>
+  <si>
+    <t>maithang.ta2360@student.edu.vn</t>
+  </si>
+  <si>
+    <t>vuthien.ta2327@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyenthong.ta2665@student.edu.vn</t>
+  </si>
+  <si>
+    <t>dinhtoan.ta0610@student.edu.vn</t>
+  </si>
+  <si>
+    <t>tranxuantrieu.ta3247@student.edu.vn</t>
+  </si>
+  <si>
+    <t>ledongtuan.ta3511@student.edu.vn</t>
+  </si>
+  <si>
+    <t>nguyentuan.ta1174@student.edu.vn</t>
+  </si>
+  <si>
+    <t>trantuan.ta0117@student.edu.vn</t>
+  </si>
+  <si>
+    <t>levu.ta1234@student.edu.vn</t>
+  </si>
+  <si>
+    <t>vonamyen.ta1234@student.edu.vn</t>
   </si>
 </sst>
 </file>
@@ -905,7 +917,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -920,910 +932,922 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>38587</v>
+        <v>38426</v>
       </c>
       <c r="E2" s="2">
-        <v>367612308</v>
+        <v>912345678</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>38574</v>
+        <v>38555</v>
       </c>
       <c r="E3" s="2">
-        <v>329283674</v>
+        <v>923456789</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>38068</v>
+        <v>38117</v>
       </c>
       <c r="E4" s="2">
-        <v>777541018</v>
+        <v>934567890</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" s="3">
-        <v>37213</v>
+        <v>37230</v>
       </c>
       <c r="E5" s="2">
-        <v>965816822</v>
+        <v>945678901</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3">
-        <v>38341</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>38248</v>
+      </c>
+      <c r="E6" s="2">
+        <v>956789012</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
-        <v>38397</v>
+        <v>38382</v>
       </c>
       <c r="E7" s="2">
-        <v>906548904</v>
+        <v>967890123</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3">
-        <v>37843</v>
+        <v>37784</v>
       </c>
       <c r="E8" s="2">
-        <v>344366982</v>
+        <v>978901234</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3">
-        <v>38103</v>
+        <v>38213</v>
       </c>
       <c r="E9" s="2">
-        <v>763440157</v>
+        <v>989012345</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D10" s="3">
-        <v>38403</v>
+        <v>38467</v>
       </c>
       <c r="E10" s="2">
-        <v>336833827</v>
+        <v>990123456</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="D11" s="3">
-        <v>38642</v>
+        <v>38664</v>
       </c>
       <c r="E11" s="2">
-        <v>938835432</v>
+        <v>911223344</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>18</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>63</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D12" s="3">
-        <v>38515</v>
+        <v>38402</v>
       </c>
       <c r="E12" s="2">
-        <v>348467563</v>
+        <v>912334455</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>20</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3">
-        <v>38186</v>
+        <v>38348</v>
       </c>
       <c r="E13" s="2">
-        <v>379119608</v>
+        <v>913445566</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D14" s="3">
-        <v>37877</v>
+        <v>37897</v>
       </c>
       <c r="E14" s="2">
-        <v>352448746</v>
+        <v>914556677</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3">
-        <v>38240</v>
+        <v>38215</v>
       </c>
       <c r="E15" s="2">
-        <v>394858350</v>
+        <v>915667788</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
-        <v>38633</v>
+        <v>38606</v>
       </c>
       <c r="E16" s="2">
-        <v>352693087</v>
+        <v>916778899</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>112</v>
+        <v>71</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D17" s="3">
-        <v>37543</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+        <v>37353</v>
+      </c>
+      <c r="E17" s="2">
+        <v>917889900</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3">
-        <v>37856</v>
+        <v>37831</v>
       </c>
       <c r="E18" s="2">
-        <v>383647610</v>
+        <v>918990011</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D19" s="3">
-        <v>38069</v>
+        <v>38128</v>
       </c>
       <c r="E19" s="2">
-        <v>354434722</v>
+        <v>919001122</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>33</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3">
-        <v>37881</v>
+        <v>37938</v>
       </c>
       <c r="E20" s="2">
-        <v>932755816</v>
+        <v>920112233</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D21" s="3">
-        <v>38360</v>
+        <v>38437</v>
       </c>
       <c r="E21" s="2">
-        <v>909463801</v>
+        <v>921223344</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D22" s="3">
-        <v>38181</v>
+        <v>37995</v>
       </c>
       <c r="E22" s="2">
-        <v>973709253</v>
+        <v>922334455</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>120</v>
+        <v>79</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D23" s="3">
-        <v>38366</v>
+        <v>38520</v>
       </c>
       <c r="E23" s="2">
-        <v>374352531</v>
+        <v>923445566</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3">
-        <v>37781</v>
+        <v>37979</v>
       </c>
       <c r="E24" s="2">
-        <v>707414770</v>
+        <v>924556677</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D25" s="3">
-        <v>1</v>
+        <v>38019</v>
       </c>
       <c r="E25" s="2">
-        <v>37447</v>
-      </c>
-      <c r="F25" s="2"/>
+        <v>925667788</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D26" s="3">
-        <v>37855</v>
+        <v>37909</v>
       </c>
       <c r="E26" s="2">
-        <v>964133644</v>
+        <v>926778899</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="D27" s="3">
-        <v>36948</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+        <v>36978</v>
+      </c>
+      <c r="E27" s="2">
+        <v>927889900</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D28" s="3">
-        <v>38381</v>
+        <v>38595</v>
       </c>
       <c r="E28" s="2">
-        <v>356960801</v>
+        <v>928990011</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>49</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="D29" s="3">
-        <v>38535</v>
+        <v>38476</v>
       </c>
       <c r="E29" s="2">
-        <v>397756760</v>
+        <v>929001122</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="D30" s="3">
-        <v>38617</v>
+        <v>38545</v>
       </c>
       <c r="E30" s="2">
-        <v>392487278</v>
+        <v>930112233</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D31" s="3">
-        <v>38072</v>
+        <v>38250</v>
       </c>
       <c r="E31" s="2">
-        <v>905224691</v>
+        <v>931223344</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>55</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>133</v>
+        <v>92</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D32" s="3">
-        <v>38577</v>
+        <v>38448</v>
       </c>
       <c r="E32" s="2">
-        <v>359409031</v>
+        <v>932334455</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D33" s="3">
-        <v>36534</v>
+        <v>36548</v>
       </c>
       <c r="E33" s="2">
-        <v>941608301</v>
+        <v>933445566</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D34" s="3">
-        <v>38647</v>
+        <v>38700</v>
       </c>
       <c r="E34" s="2">
-        <v>394388266</v>
+        <v>934556677</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>61</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D35" s="3">
-        <v>37915</v>
+        <v>37841</v>
       </c>
       <c r="E35" s="2">
-        <v>869797491</v>
+        <v>935667788</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>63</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3">
-        <v>38426</v>
+        <v>38461</v>
       </c>
       <c r="E36" s="2">
-        <v>868388150</v>
+        <v>936778899</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>65</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>38422</v>
       </c>
       <c r="E37" s="2">
-        <v>817007558</v>
+        <v>937889900</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>140</v>
+        <v>99</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="D38" s="3">
-        <v>1</v>
+        <v>38528</v>
       </c>
       <c r="E38" s="2">
-        <v>886170759</v>
+        <v>938990011</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D39" s="3">
-        <v>38344</v>
+        <v>38298</v>
       </c>
       <c r="E39" s="2">
-        <v>928473430</v>
+        <v>939001122</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>142</v>
+        <v>101</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D40" s="3">
-        <v>38716</v>
+        <v>38655</v>
       </c>
       <c r="E40" s="2">
-        <v>346224763</v>
+        <v>940112233</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>143</v>
+        <v>102</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="D41" s="3">
-        <v>1</v>
+        <v>38399</v>
       </c>
       <c r="E41" s="2">
-        <v>365686252</v>
+        <v>941223344</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>75</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="D42" s="3">
-        <v>38251</v>
+        <v>38177</v>
       </c>
       <c r="E42" s="2">
-        <v>342244270</v>
+        <v>942334455</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>78</v>
+        <v>40</v>
       </c>
       <c r="D43" s="3">
-        <v>38669</v>
+        <v>38494</v>
       </c>
       <c r="E43" s="2">
-        <v>342244271</v>
+        <v>943445566</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>146</v>
+        <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D44" s="3">
-        <v>38135</v>
+        <v>38243</v>
       </c>
       <c r="E44" s="2">
-        <v>385623512</v>
+        <v>944556677</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D45" s="3">
-        <v>1</v>
+        <v>38447</v>
       </c>
       <c r="E45" s="2">
-        <v>948891316</v>
+        <v>945667788</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>82</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
       <c r="D46" s="3">
-        <v>37890</v>
+        <v>37912</v>
       </c>
       <c r="E46" s="2">
-        <v>937104375</v>
+        <v>946778899</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/import/List_sv_TA.xlsx
+++ b/import/List_sv_TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685A99D5-EE46-42EB-BDA7-72179A4666A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92F7323-6CC2-469D-834A-D56C82C52443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{45B5C5C9-3BF2-4C64-AE03-389D727FBC36}"/>
   </bookViews>
@@ -917,7 +917,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
